--- a/biology/Médecine/J'ai_horreur_de_l'amour/J'ai_horreur_de_l'amour.xlsx
+++ b/biology/Médecine/J'ai_horreur_de_l'amour/J'ai_horreur_de_l'amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">J'ai horreur de l'amour est un film français réalisé par Laurence Ferreira Barbosa en 1997.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'été à Paris, Annie Simonin, médecin généraliste, tente d'affronter la réalité entre Richard Piotr, un acteur de théâtre hypocondriaque qui, après l'avoir séduite, la harcèle et la menace de mort et Laurent Blondel, un jeune homme séropositif au VIH qui refuse de se battre pour vivre, mais qui n’est pas insensible aux charmes d’Annie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : J'ai horreur de l'amour
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jeanne Balibar : DrAnnie Simonin
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,10 +664,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le film est tourné à l'été 1996, principalement dans le quartier de la Gare du 13e arrondissement de Paris avec des scènes réalisées avenue des Gobelins, rue Nationale, boulevard Masséna, boulevard Vincent-Auriol, et à l'hôpital de la Salpêtrière.
-Musique du film
-Le film s'ouvre sur une scène où Annie Simonin roule sur sa Vespa remontant en été l'avenue des Gobelins à Paris, au son de Salut les amoureux de Joe Dassin. Cette scène est inspirée de Journal intime (1993) de Nanni Moretti. Cette chanson de Joe Dassin est le fil rouge musical du film, jouée à plusieurs reprises et constitue le générique de fin dans une version contemporaine interprétée spécialement pour le film[1] par Christophe Miossec et publiée sur l'album Baiser (1997).
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est tourné à l'été 1996, principalement dans le quartier de la Gare du 13e arrondissement de Paris avec des scènes réalisées avenue des Gobelins, rue Nationale, boulevard Masséna, boulevard Vincent-Auriol, et à l'hôpital de la Salpêtrière.
 </t>
         </is>
       </c>
@@ -660,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>J%27ai_horreur_de_l%27amour</t>
+          <t>J'ai_horreur_de_l'amour</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,10 +696,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musique du film</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film s'ouvre sur une scène où Annie Simonin roule sur sa Vespa remontant en été l'avenue des Gobelins à Paris, au son de Salut les amoureux de Joe Dassin. Cette scène est inspirée de Journal intime (1993) de Nanni Moretti. Cette chanson de Joe Dassin est le fil rouge musical du film, jouée à plusieurs reprises et constitue le générique de fin dans une version contemporaine interprétée spécialement pour le film par Christophe Miossec et publiée sur l'album Baiser (1997).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>J'ai_horreur_de_l'amour</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%27ai_horreur_de_l%27amour</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1997 : Prix de la jeunesse au Festival de Cannes</t>
         </is>
